--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0488A3-76E4-452B-B2AA-F859FB66672E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F34D34-F102-4D9D-A57A-10DA0DDBF0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Czech" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Wg</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>NGC-3478/T2265</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1734</t>
   </si>
 </sst>
 </file>
@@ -607,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33AAF6-8844-4EC4-B584-D2A4E6E2065C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,4 +710,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73801522-9AF0-4121-BFBF-6F36ECA0072D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F34D34-F102-4D9D-A57A-10DA0DDBF0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37F7C5F-994E-40AC-855D-C3C9AAC1F93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Wg</t>
   </si>
@@ -89,6 +90,12 @@
   </si>
   <si>
     <t>NGC-3477/T1734</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2344/T2345</t>
   </si>
 </sst>
 </file>
@@ -716,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73801522-9AF0-4121-BFBF-6F36ECA0072D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,4 +819,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACEEE64-9E61-4A0A-9F8B-8DC6A174ECDB}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37F7C5F-994E-40AC-855D-C3C9AAC1F93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA457ED-3546-4952-81FF-08C7BF0506BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -96,6 +97,12 @@
   </si>
   <si>
     <t>NGC-3476/T2344/T2345</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2404</t>
   </si>
 </sst>
 </file>
@@ -825,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACEEE64-9E61-4A0A-9F8B-8DC6A174ECDB}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -921,4 +928,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52370999-E761-4360-BA2E-051D209CF1CD}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA457ED-3546-4952-81FF-08C7BF0506BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85983FB-8811-4ECA-AD51-5442A894B002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>NGC-3479/T2404</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3222/T3221</t>
   </si>
 </sst>
 </file>
@@ -527,7 +534,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52370999-E761-4360-BA2E-051D209CF1CD}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,4 +1037,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A362AD78-2609-4251-BA5E-942B46BF853E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85983FB-8811-4ECA-AD51-5442A894B002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604C052B-EA85-49C1-9242-2E567B5DF16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
+    <sheet name="Italy" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -110,13 +111,19 @@
   </si>
   <si>
     <t>NGC-2930/T3222/T3221</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2155/T2156/T2158/T2159</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +142,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -211,6 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -546,12 +561,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -560,10 +575,10 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -648,12 +663,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -662,10 +677,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -750,12 +765,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -764,10 +779,10 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -852,12 +867,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -866,10 +881,10 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -954,12 +969,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -968,10 +983,10 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1041,6 +1056,108 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A362AD78-2609-4251-BA5E-942B46BF853E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769232F-64AE-46CC-82FC-B8A582547826}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1056,24 +1173,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1085,12 +1202,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604C052B-EA85-49C1-9242-2E567B5DF16C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1400C366-8EDC-4BF6-A887-5555EDEA9EB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
+    <sheet name="Spain" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>NGC-3145/T2155/T2156/T2158/T2159</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2034</t>
   </si>
 </sst>
 </file>
@@ -1160,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769232F-64AE-46CC-82FC-B8A582547826}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,4 +1263,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3631F7DF-2766-4BCF-858A-001CD5CD26C0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1400C366-8EDC-4BF6-A887-5555EDEA9EB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B60BA0-D519-4B55-A8CB-5A54763F4F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t>NGC-3103/T2034</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3325</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3631F7DF-2766-4BCF-858A-001CD5CD26C0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,4 +1371,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB2A4DC-7DFE-42F1-A604-9AEA3E6E1E9F}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B60BA0-D519-4B55-A8CB-5A54763F4F6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C2314-47CF-4E56-8965-0F2493FFAE73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -131,6 +132,12 @@
   </si>
   <si>
     <t>NGC-3191/T3325</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2415/T2416/T2418</t>
   </si>
 </sst>
 </file>
@@ -660,6 +667,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F4EFA7-BD4A-417A-B956-B162AFE83D16}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33AAF6-8844-4EC4-B584-D2A4E6E2065C}">
   <dimension ref="A1:D11"/>
@@ -1377,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB2A4DC-7DFE-42F1-A604-9AEA3E6E1E9F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C2314-47CF-4E56-8965-0F2493FFAE73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DFDEE2-9A83-40B0-9B3B-DB964CC5C362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
+    <sheet name="Greece" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>NGC-3139/T2415/T2416/T2418</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3167/T3166</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -671,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F4EFA7-BD4A-417A-B956-B162AFE83D16}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,6 +725,107 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6430583-2C10-49B0-8B15-EE366A846D01}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DFDEE2-9A83-40B0-9B3B-DB964CC5C362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC16665-0C7C-49B2-8ACF-E8D5CF8C4AF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
     <sheet name="Greece" sheetId="23" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
+    <sheet name="Austria" sheetId="25" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="26" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="41">
   <si>
     <t>Wg</t>
   </si>
@@ -145,6 +148,27 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2176/T2177</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2272</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2749</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>Fire Brigade Panel</t>
   </si>
 </sst>
 </file>
@@ -779,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6430583-2C10-49B0-8B15-EE366A846D01}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -826,6 +850,312 @@
       </c>
       <c r="B4" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11B9DC3-D6DC-4F7F-B25D-741976C3AAB0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC88476-D386-49E5-B143-6D9A22B2988E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7320203-6EDE-485A-BE51-C585E97AAFBC}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC16665-0C7C-49B2-8ACF-E8D5CF8C4AF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926C9F92-4299-4B06-A61B-334E8FBB14D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
     <sheet name="Austria" sheetId="25" r:id="rId13"/>
     <sheet name="Denmark" sheetId="26" r:id="rId14"/>
+    <sheet name="Russia" sheetId="28" r:id="rId15"/>
+    <sheet name="Finland" sheetId="29" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="30" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="47">
   <si>
     <t>Wg</t>
   </si>
@@ -169,6 +172,24 @@
   </si>
   <si>
     <t>Fire Brigade Panel</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2943</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2992</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC88476-D386-49E5-B143-6D9A22B2988E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1206,6 +1227,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AF3BF4-9F90-4EBF-93FB-6A6F80D657B7}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7FCBEC-CF36-4139-AFCA-B48D1035CB91}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12BB4F4-95A3-4928-8514-DA04C5F5AAFE}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33AAF6-8844-4EC4-B584-D2A4E6E2065C}">
   <dimension ref="A1:D11"/>

--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926C9F92-4299-4B06-A61B-334E8FBB14D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F6FF89-564D-4BD9-A519-E0C9B3D6C64C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="28" r:id="rId15"/>
     <sheet name="Finland" sheetId="29" r:id="rId16"/>
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
+    <sheet name="Norway" sheetId="31" r:id="rId18"/>
+    <sheet name="Poland" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -190,6 +192,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3060/T3061</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3106/T3104/T3103</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12BB4F4-95A3-4928-8514-DA04C5F5AAFE}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
@@ -1487,6 +1501,208 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C19F4B-4AC6-48AF-B3B1-D43A44BEF803}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0B9A8D-CF9A-4571-BA0B-12A89D12E6A2}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F6FF89-564D-4BD9-A519-E0C9B3D6C64C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB602F-A086-48DE-969B-AA499E81398C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
     <sheet name="Norway" sheetId="31" r:id="rId18"/>
     <sheet name="Poland" sheetId="32" r:id="rId19"/>
+    <sheet name="UK" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -204,6 +205,15 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>GMPIM</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3343/T3342/T3345</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C19F4B-4AC6-48AF-B3B1-D43A44BEF803}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1848,6 +1858,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F9EC13-7BC3-4780-9C39-7DE0EE727FA8}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73801522-9AF0-4121-BFBF-6F36ECA0072D}">
   <dimension ref="A1:D11"/>
